--- a/out.xlsx
+++ b/out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhira\eclipse-workspace\SchemeAdd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhira\Documents\eclipse-workspace\SchemeAdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A55D340-C949-42B7-8BC1-71DDB35AA40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E03CA-F54A-43DB-85BB-A14D3622FB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSE scheme Master" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="94">
   <si>
     <t>BSE_scheme_master</t>
   </si>
@@ -219,9 +219,6 @@
     <t>DP</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -252,58 +249,58 @@
     <t>suggestion category</t>
   </si>
   <si>
+    <t>Scheme_other_info</t>
+  </si>
+  <si>
+    <t>channel partner code</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Z</t>
   </si>
   <si>
-    <t>EQUITY</t>
+    <t>CAMS</t>
   </si>
   <si>
-    <t>Scheme_other_info</t>
+    <t>DEBT</t>
   </si>
   <si>
-    <t>KARVY</t>
+    <t>T1</t>
   </si>
   <si>
-    <t>T3</t>
+    <t>{"A":[{"icon":"calendar_icon","text":"Suitable for 6 months to 3 years"},{"icon":"goal_icon","text":"Goals: Buying a car, saving for foreign travel"}],"B":[{"icon":"money_icon","text":"Alternative to FD or RD with higher returns" },{"icon":"noshare_icon","text":"Returns not linked with share market" },{"icon":"calculator_icon","text":"Tax efficient returns if withdrawn after 3 year " },{"icon":"money1_icon","text":"Withdraw anytime" }],"C":[{"icon":"no_lock_icon","text":"No Lock"},{"icon":"","text":"Exit load Nil"},{"icon":"","text":""}]}</t>
   </si>
   <si>
-    <t>{"A":[{"icon":"calendar_icon","text":"Suitable for more than 5 years"},{"icon":"goal_icon","text":"Goals: Saving for child's education, retirement planning"}],"B":[{"icon":"money_icon","text":"Ideal for long-term investments" },{"icon":"share_icon","text":"Invests in share market" },{"icon":"money1_icon","text":"Invest in companies from a specific sector" },{"icon":"calculator_icon","text":"Exit load may apply if withdrawn within 1 year" }],"C":[{"icon":"no_lock_icon","text":"No Lock"},{"icon":"","text":"Exit load applies"},{"icon":"","text":""}]}</t>
+    <t>BS80B-GR</t>
   </si>
   <si>
-    <t>Sector</t>
+    <t>80B</t>
   </si>
   <si>
-    <t>QUIBGP-GR</t>
+    <t>INF209KB16B1</t>
   </si>
   <si>
-    <t>IBGP</t>
+    <t>BirlaSunLifeMutualFund_MF</t>
   </si>
   <si>
-    <t>INF966L01AA0</t>
+    <t xml:space="preserve">Aditya Birla Sun Life Nifty SDL Plus PSU Bond Sep 2026 60:40 Index Fund </t>
   </si>
   <si>
-    <t>QUANTMUTUALFUND_MF</t>
+    <t>14:30:00</t>
   </si>
   <si>
-    <t>Small cap</t>
+    <t>B80B</t>
   </si>
   <si>
-    <t>small cap</t>
-  </si>
-  <si>
-    <t>Quant Small Cap Fund (G)</t>
-  </si>
-  <si>
-    <t>0.60416666666666663</t>
+    <t>MONTHLY</t>
   </si>
   <si>
     <t>0.625</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>{"REQUEST":null,"status":{"code":"-1","messages":[{"type":"ERROR","code":"Z999","description":"null id in com.cashrich.fs.db.dto.BSESchemeMasterDTO entry (don't flush the Session after an exception occurs)"}]}}</t>
   </si>
   <si>
     <t>1</t>
@@ -312,18 +309,15 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"REQUEST":null,"response":{"schemeMasterId":1006444,"schemeCode":"QUIBGP-GR","schemeName":"Quant Small Cap Fund (G)","oneTimeSchemeSuggestionCategory":511,"sipSchemeSuggestionCategory":511,"oneTimeBucketId":null,"sipBucketId":null,"bseSchemeMasterDTO":{"bseSchemeId":1006443,"uniqueNo":"33998","schemeCode":"QUIBGP-GR","amcSchemeCode":"IBGP","isinNo":"INF966L01AA0","amcCode":"QUANTMUTUALFUND_MF","schemeName":"Quant Small Cap Fund (G)","purchaseTransactionMode":"DP","minPurchaseAmt":5000.0,"additionalPurchaseAmtMultiple":1000.0,"maxPurchaseAmt":199999.0,"purchaseAllowed":"Y","purchaseCutoffTime":"0.60416666666666663","redeemTransactionMode":"DP","minRedeemQty":0.001,"minRedeemAmt":1000.0,"redeemQtyMultiplier":0.001,"maxRedeemQty":0.0,"redeemAllowed":"Y","redeemCutOffTime":"0.625","rtaAgentCode":"KARVY","amcActiveFlag":1,"dividentReinvstFlag":"Z","schemeType":"EQUITY","sipFlag":"Y","stpFlag":"Y","swpFlag":"Y","settlementType":"T3","purchaseAmtMultiplier":1.0,"redeemSchemeCode":"QUIBGP-GR","updatedTimestamp":1634813020000,"createdTimestamp":1634813020000,"maxRedemptionAmount":"0","exitLoad":"0","lockInPeriod":"0","switchFlag":"1","channelPartnerCode":null,"rtaschemeCode":"IBGP"},"schemeMasterDTO":{"schemeMasterId":1006444,"schemeName":"Quant Small Cap Fund (G)","schemeCategory":424,"schemeType":151,"schemeHouse":931,"schemeOtherInfo":"{\"A\":[{\"icon\":\"calendar_icon\",\"text\":\"Suitable for more than 5 years\"},{\"icon\":\"goal_icon\",\"text\":\"Goals: Saving for child's education, retirement planning\"}],\"B\":[{\"icon\":\"money_icon\",\"text\":\"Ideal for long-term investments\" },{\"icon\":\"share_icon\",\"text\":\"Invests in share market\" },{\"icon\":\"money1_icon\",\"text\":\"Invest in companies from a specific sector\" },{\"icon\":\"calculator_icon\",\"text\":\"Exit load may apply if withdrawn within 1 year\" }],\"C\":[{\"icon\":\"no_lock_icon\",\"text\":\"No Lock\"},{\"icon\":\"\",\"text\":\"Exit load applies\"},{\"icon\":\"\",\"text\":\"\"}]}","schemeKnowMoreLink":"","schemeStatus":11,"schemeNAV":0.0,"schemeRating":0.0,"schemeReturn":"","schemeISIN":"INF966L01AA0","appEnableSwitch":0,"updatedTimestamp":1634813020000,"createdTimestamp":1634813020000},"sipSchemeMasterDTO":{"sipSchemeId":1015593,"schemeMFMapping":{"schemeMfMappingId":1006444,"schemeMaster":{"schemeMasterId":1006444,"schemeName":"Quant Small Cap Fund (G)","schemeCategory":424,"schemeType":151,"schemeHouse":931,"schemeOtherInfo":"{\"A\":[{\"icon\":\"calendar_icon\",\"text\":\"Suitable for more than 5 years\"},{\"icon\":\"goal_icon\",\"text\":\"Goals: Saving for child's education, retirement planning\"}],\"B\":[{\"icon\":\"money_icon\",\"text\":\"Ideal for long-term investments\" },{\"icon\":\"share_icon\",\"text\":\"Invests in share market\" },{\"icon\":\"money1_icon\",\"text\":\"Invest in companies from a specific sector\" },{\"icon\":\"calculator_icon\",\"text\":\"Exit load may apply if withdrawn within 1 year\" }],\"C\":[{\"icon\":\"no_lock_icon\",\"text\":\"No Lock\"},{\"icon\":\"\",\"text\":\"Exit load applies\"},{\"icon\":\"\",\"text\":\"\"}]}","schemeKnowMoreLink":"","schemeStatus":11,"schemeNAV":0.0,"schemeRating":0.0,"schemeReturn":"","schemeISIN":"INF966L01AA0","appEnableSwitch":0,"updatedTimestamp":1634813020000,"createdTimestamp":1634813020000},"mfSchemeMasterId":1006443,"mfPlatformId":601,"schemeMFMappingStatus":11,"updatedTimestamp":1634813020000,"createdTimestamp":1634813020000},"transactionMode":"DP","frequency":181,"allowedDates":"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28","instalmentGap":0,"minimumGap":0,"maximumGap":60,"mfStatus":1,"minInstalmentAmount":1000.0,"maxInstalmentAmount":199999.0,"multiplierAmount":1.0,"minInstalmentNumber":6,"maxInstalmentNumber":9999,"sipRating":0.0,"schemeReturn":"","status":11,"updatedTimestamp":1634813020000,"createdTimestamp":1634813020000}},"status":{"code":"200","messages":[]}}</t>
+    <t>{"REQUEST":null,"response":{"schemeMasterId":1006481,"schemeCode":"BS80B-GR","schemeName":"Aditya Birla Sun Life Nifty SDL Plus PSU Bond Sep 2026 60:40 Index Fund ","oneTimeSchemeSuggestionCategory":517,"sipSchemeSuggestionCategory":517,"oneTimeBucketId":null,"sipBucketId":null,"bseSchemeMasterDTO":{"bseSchemeId":1006480,"uniqueNo":"37992","schemeCode":"BS80B-GR","amcSchemeCode":"80B","isinNo":"INF209KB16B1","amcCode":"BirlaSunLifeMutualFund_MF","schemeName":"Aditya Birla Sun Life Nifty SDL Plus PSU Bond Sep 2026 60:40 Index Fund ","purchaseTransactionMode":"DP","minPurchaseAmt":500.0,"additionalPurchaseAmtMultiple":500.0,"maxPurchaseAmt":0.0,"purchaseAllowed":"Y","purchaseCutoffTime":"14:30:00","redeemTransactionMode":"DP","minRedeemQty":0.001,"minRedeemAmt":1.0,"redeemQtyMultiplier":0.001,"maxRedeemQty":0.0,"redeemAllowed":"Y","redeemCutOffTime":"0.625","rtaAgentCode":"CAMS","amcActiveFlag":1,"dividentReinvstFlag":"Z","schemeType":"DEBT","sipFlag":"Y","stpFlag":"N","swpFlag":"Y","settlementType":"T1","purchaseAmtMultiplier":1.0,"redeemSchemeCode":"BS80B-GR","updatedTimestamp":1659091137000,"createdTimestamp":1659091137000,"maxRedemptionAmount":"0","exitLoad":"0","lockInPeriod":"0","switchFlag":"1","channelPartnerCode":"B80B","rtaschemeCode":"80B"},"schemeMasterDTO":{"schemeMasterId":1006481,"schemeName":"Aditya Birla Sun Life Nifty SDL Plus PSU Bond Sep 2026 60:40 Index Fund ","schemeCategory":426,"schemeType":151,"schemeHouse":95,"schemeOtherInfo":"{\"A\":[{\"icon\":\"calendar_icon\",\"text\":\"Suitable for 6 months to 3 years\"},{\"icon\":\"goal_icon\",\"text\":\"Goals: Buying a car, saving for foreign travel\"}],\"B\":[{\"icon\":\"money_icon\",\"text\":\"Alternative to FD or RD with higher returns\" },{\"icon\":\"noshare_icon\",\"text\":\"Returns not linked with share market\" },{\"icon\":\"calculator_icon\",\"text\":\"Tax efficient returns if withdrawn after 3 year \" },{\"icon\":\"money1_icon\",\"text\":\"Withdraw anytime\" }],\"C\":[{\"icon\":\"no_lock_icon\",\"text\":\"No Lock\"},{\"icon\":\"\",\"text\":\"Exit load Nil\"},{\"icon\":\"\",\"text\":\"\"}]}","schemeKnowMoreLink":"","schemeStatus":11,"schemeNAV":0.0,"navOneDayChangePercentage":null,"schemeRating":0.0,"schemeReturn":"","schemeISIN":"INF209KB16B1","appEnableSwitch":0,"updatedTimestamp":1659091137000,"createdTimestamp":1659091137000},"sipSchemeMasterDTO":{"sipSchemeId":1015632,"schemeMFMapping":{"schemeMfMappingId":1006481,"schemeMaster":{"schemeMasterId":1006481,"schemeName":"Aditya Birla Sun Life Nifty SDL Plus PSU Bond Sep 2026 60:40 Index Fund ","schemeCategory":426,"schemeType":151,"schemeHouse":95,"schemeOtherInfo":"{\"A\":[{\"icon\":\"calendar_icon\",\"text\":\"Suitable for 6 months to 3 years\"},{\"icon\":\"goal_icon\",\"text\":\"Goals: Buying a car, saving for foreign travel\"}],\"B\":[{\"icon\":\"money_icon\",\"text\":\"Alternative to FD or RD with higher returns\" },{\"icon\":\"noshare_icon\",\"text\":\"Returns not linked with share market\" },{\"icon\":\"calculator_icon\",\"text\":\"Tax efficient returns if withdrawn after 3 year \" },{\"icon\":\"money1_icon\",\"text\":\"Withdraw anytime\" }],\"C\":[{\"icon\":\"no_lock_icon\",\"text\":\"No Lock\"},{\"icon\":\"\",\"text\":\"Exit load Nil\"},{\"icon\":\"\",\"text\":\"\"}]}","schemeKnowMoreLink":"","schemeStatus":11,"schemeNAV":0.0,"navOneDayChangePercentage":null,"schemeRating":0.0,"schemeReturn":"","schemeISIN":"INF209KB16B1","appEnableSwitch":0,"updatedTimestamp":1659091137000,"createdTimestamp":1659091137000},"mfSchemeMasterId":1006480,"mfPlatformId":601,"schemeMFMappingStatus":11,"updatedTimestamp":1659091137000,"createdTimestamp":1659091137000},"transactionMode":"DP","frequency":89,"allowedDates":"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28","instalmentGap":0,"minimumGap":0,"maximumGap":60,"mfStatus":1,"minInstalmentAmount":500.0,"maxInstalmentAmount":9.99999999E8,"multiplierAmount":1.0,"minInstalmentNumber":6,"maxInstalmentNumber":9999,"sipRating":0.0,"schemeReturn":null,"status":11,"updatedTimestamp":1659091137000,"createdTimestamp":1659091137000}},"status":{"code":"200","messages":[],"failCode":false}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -362,12 +356,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -420,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -451,31 +439,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -484,22 +452,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -507,6 +462,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,9 +698,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV191"/>
+  <dimension ref="A1:AL191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AL2" sqref="AL2"/>
     </sheetView>
@@ -756,12 +728,12 @@
     <col min="32" max="32" bestFit="true" customWidth="true" width="19.33203125" collapsed="false"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="17.5546875" collapsed="false"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="9.6640625" collapsed="false"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.109375" collapsed="false"/>
     <col min="36" max="36" bestFit="true" customWidth="true" width="11.6640625" collapsed="false"/>
     <col min="37" max="37" bestFit="true" customWidth="true" width="12.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,580 +845,349 @@
       <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6"/>
-    </row>
-    <row r="2" spans="1:48" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37">
-        <v>33998</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="AL1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
+        <v>37992</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="9">
+        <v>500</v>
+      </c>
+      <c r="K2" s="9">
+        <v>500</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="9">
+        <v>1</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="21">
-        <v>5000</v>
-      </c>
-      <c r="K2" s="21">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="21">
-        <v>199999</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="38" t="s">
+      <c r="AG2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL2" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="21">
-        <v>1E-3</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>1E-3</v>
-      </c>
-      <c r="R2" s="21">
-        <v>0</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" s="21">
-        <v>1</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG2" s="37">
-        <v>1000</v>
-      </c>
-      <c r="AH2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-    </row>
-    <row r="5" spans="1:48" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-    </row>
-    <row r="6" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="22"/>
-    </row>
-    <row r="7" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-    </row>
-    <row r="8" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
-    </row>
-    <row r="9" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-    </row>
-    <row r="10" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-    </row>
-    <row r="11" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="T3" s="27"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="29"/>
+      <c r="T4" s="27"/>
+      <c r="AK4" s="29"/>
+    </row>
+    <row r="5" spans="1:38" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+    </row>
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-    </row>
-    <row r="12" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+    </row>
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-    </row>
-    <row r="13" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+    </row>
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-    </row>
-    <row r="14" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+    </row>
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-    </row>
-    <row r="15" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+    </row>
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1485,50 +1226,9 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-    </row>
     <row r="17" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1569,7 +1269,7 @@
     </row>
     <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1610,7 +1310,7 @@
     </row>
     <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1651,7 +1351,7 @@
     </row>
     <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1692,7 +1392,7 @@
     </row>
     <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1733,7 +1433,7 @@
     </row>
     <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1774,7 +1474,7 @@
     </row>
     <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1815,7 +1515,7 @@
     </row>
     <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1856,7 +1556,7 @@
     </row>
     <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1897,7 +1597,7 @@
     </row>
     <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1938,7 +1638,7 @@
     </row>
     <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1979,7 +1679,7 @@
     </row>
     <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2020,7 +1720,7 @@
     </row>
     <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2061,7 +1761,7 @@
     </row>
     <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2102,7 +1802,7 @@
     </row>
     <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2143,7 +1843,7 @@
     </row>
     <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2184,7 +1884,7 @@
     </row>
     <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2225,7 +1925,7 @@
     </row>
     <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2266,7 +1966,7 @@
     </row>
     <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2307,7 +2007,7 @@
     </row>
     <row r="36" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2348,7 +2048,7 @@
     </row>
     <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2389,7 +2089,7 @@
     </row>
     <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2430,7 +2130,7 @@
     </row>
     <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2471,7 +2171,7 @@
     </row>
     <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2512,7 +2212,7 @@
     </row>
     <row r="41" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2553,7 +2253,7 @@
     </row>
     <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2594,7 +2294,7 @@
     </row>
     <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2635,7 +2335,7 @@
     </row>
     <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2676,7 +2376,7 @@
     </row>
     <row r="45" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2717,7 +2417,7 @@
     </row>
     <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2758,7 +2458,7 @@
     </row>
     <row r="47" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2799,7 +2499,7 @@
     </row>
     <row r="48" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2840,7 +2540,7 @@
     </row>
     <row r="49" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2881,7 +2581,7 @@
     </row>
     <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2922,7 +2622,7 @@
     </row>
     <row r="51" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2963,7 +2663,7 @@
     </row>
     <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -3004,7 +2704,7 @@
     </row>
     <row r="53" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -3045,7 +2745,7 @@
     </row>
     <row r="54" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -3086,7 +2786,7 @@
     </row>
     <row r="55" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -3127,7 +2827,7 @@
     </row>
     <row r="56" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -3168,7 +2868,7 @@
     </row>
     <row r="57" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -3209,7 +2909,7 @@
     </row>
     <row r="58" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -3250,7 +2950,7 @@
     </row>
     <row r="59" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3291,7 +2991,7 @@
     </row>
     <row r="60" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -3332,7 +3032,7 @@
     </row>
     <row r="61" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3373,7 +3073,7 @@
     </row>
     <row r="62" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -3414,7 +3114,7 @@
     </row>
     <row r="63" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3455,7 +3155,7 @@
     </row>
     <row r="64" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3496,7 +3196,7 @@
     </row>
     <row r="65" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3537,7 +3237,7 @@
     </row>
     <row r="66" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3578,7 +3278,7 @@
     </row>
     <row r="67" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3619,7 +3319,7 @@
     </row>
     <row r="68" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3660,7 +3360,7 @@
     </row>
     <row r="69" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3701,7 +3401,7 @@
     </row>
     <row r="70" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3742,7 +3442,7 @@
     </row>
     <row r="71" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3783,7 +3483,7 @@
     </row>
     <row r="72" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3824,7 +3524,7 @@
     </row>
     <row r="73" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3865,7 +3565,7 @@
     </row>
     <row r="74" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3906,7 +3606,7 @@
     </row>
     <row r="75" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3947,7 +3647,7 @@
     </row>
     <row r="76" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3988,7 +3688,7 @@
     </row>
     <row r="77" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -4029,7 +3729,7 @@
     </row>
     <row r="78" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -4070,7 +3770,7 @@
     </row>
     <row r="79" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -4111,7 +3811,7 @@
     </row>
     <row r="80" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -4152,7 +3852,7 @@
     </row>
     <row r="81" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -4193,7 +3893,7 @@
     </row>
     <row r="82" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -4234,7 +3934,7 @@
     </row>
     <row r="83" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4275,7 +3975,7 @@
     </row>
     <row r="84" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -4316,7 +4016,7 @@
     </row>
     <row r="85" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4357,7 +4057,7 @@
     </row>
     <row r="86" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -4398,7 +4098,7 @@
     </row>
     <row r="87" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -4439,7 +4139,7 @@
     </row>
     <row r="88" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -4480,7 +4180,7 @@
     </row>
     <row r="89" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4521,7 +4221,7 @@
     </row>
     <row r="90" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -4562,7 +4262,7 @@
     </row>
     <row r="91" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -4603,7 +4303,7 @@
     </row>
     <row r="92" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -4644,7 +4344,7 @@
     </row>
     <row r="93" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -4685,7 +4385,7 @@
     </row>
     <row r="94" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -4726,7 +4426,7 @@
     </row>
     <row r="95" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -4767,7 +4467,7 @@
     </row>
     <row r="96" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4808,7 +4508,7 @@
     </row>
     <row r="97" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4849,7 +4549,7 @@
     </row>
     <row r="98" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4890,7 +4590,7 @@
     </row>
     <row r="99" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4931,7 +4631,7 @@
     </row>
     <row r="100" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4972,7 +4672,7 @@
     </row>
     <row r="101" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -5013,7 +4713,7 @@
     </row>
     <row r="102" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -5054,7 +4754,7 @@
     </row>
     <row r="103" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -5095,7 +4795,7 @@
     </row>
     <row r="104" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -5136,7 +4836,7 @@
     </row>
     <row r="105" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -5177,7 +4877,7 @@
     </row>
     <row r="106" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -5218,7 +4918,7 @@
     </row>
     <row r="107" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -5259,7 +4959,7 @@
     </row>
     <row r="108" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -5300,7 +5000,7 @@
     </row>
     <row r="109" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -5341,7 +5041,7 @@
     </row>
     <row r="110" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -5382,7 +5082,7 @@
     </row>
     <row r="111" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -5423,7 +5123,7 @@
     </row>
     <row r="112" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -5464,7 +5164,7 @@
     </row>
     <row r="113" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -5505,7 +5205,7 @@
     </row>
     <row r="114" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -5546,7 +5246,7 @@
     </row>
     <row r="115" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -5587,7 +5287,7 @@
     </row>
     <row r="116" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -5628,7 +5328,7 @@
     </row>
     <row r="117" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -5669,7 +5369,7 @@
     </row>
     <row r="118" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -5710,7 +5410,7 @@
     </row>
     <row r="119" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -5751,7 +5451,7 @@
     </row>
     <row r="120" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -5792,7 +5492,7 @@
     </row>
     <row r="121" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5833,7 +5533,7 @@
     </row>
     <row r="122" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -5874,7 +5574,7 @@
     </row>
     <row r="123" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -5915,7 +5615,7 @@
     </row>
     <row r="124" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -5956,7 +5656,7 @@
     </row>
     <row r="125" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -5997,7 +5697,7 @@
     </row>
     <row r="126" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -6038,7 +5738,7 @@
     </row>
     <row r="127" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -6079,7 +5779,7 @@
     </row>
     <row r="128" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -6120,7 +5820,7 @@
     </row>
     <row r="129" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -6161,7 +5861,7 @@
     </row>
     <row r="130" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -6202,7 +5902,7 @@
     </row>
     <row r="131" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -6243,7 +5943,7 @@
     </row>
     <row r="132" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -6284,7 +5984,7 @@
     </row>
     <row r="133" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -6325,7 +6025,7 @@
     </row>
     <row r="134" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -6366,7 +6066,7 @@
     </row>
     <row r="135" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -6407,7 +6107,7 @@
     </row>
     <row r="136" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -6448,7 +6148,7 @@
     </row>
     <row r="137" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -6489,7 +6189,7 @@
     </row>
     <row r="138" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -6530,7 +6230,7 @@
     </row>
     <row r="139" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -6571,7 +6271,7 @@
     </row>
     <row r="140" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -6612,7 +6312,7 @@
     </row>
     <row r="141" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -6653,7 +6353,7 @@
     </row>
     <row r="142" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -6694,7 +6394,7 @@
     </row>
     <row r="143" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -6735,7 +6435,7 @@
     </row>
     <row r="144" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -6776,7 +6476,7 @@
     </row>
     <row r="145" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -6817,7 +6517,7 @@
     </row>
     <row r="146" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -6858,7 +6558,7 @@
     </row>
     <row r="147" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -6899,7 +6599,7 @@
     </row>
     <row r="148" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -6940,7 +6640,7 @@
     </row>
     <row r="149" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -6981,7 +6681,7 @@
     </row>
     <row r="150" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -7022,7 +6722,7 @@
     </row>
     <row r="151" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -7063,7 +6763,7 @@
     </row>
     <row r="152" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -7104,7 +6804,7 @@
     </row>
     <row r="153" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -7145,7 +6845,7 @@
     </row>
     <row r="154" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -7186,7 +6886,7 @@
     </row>
     <row r="155" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -7227,7 +6927,7 @@
     </row>
     <row r="156" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -7268,7 +6968,7 @@
     </row>
     <row r="157" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -7309,7 +7009,7 @@
     </row>
     <row r="158" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -7350,7 +7050,7 @@
     </row>
     <row r="159" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -7391,7 +7091,7 @@
     </row>
     <row r="160" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -7432,7 +7132,7 @@
     </row>
     <row r="161" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -7473,7 +7173,7 @@
     </row>
     <row r="162" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -7514,7 +7214,7 @@
     </row>
     <row r="163" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -7555,7 +7255,7 @@
     </row>
     <row r="164" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -7596,7 +7296,7 @@
     </row>
     <row r="165" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -7637,7 +7337,7 @@
     </row>
     <row r="166" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -7678,7 +7378,7 @@
     </row>
     <row r="167" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -7719,7 +7419,7 @@
     </row>
     <row r="168" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -7760,7 +7460,7 @@
     </row>
     <row r="169" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -7801,7 +7501,7 @@
     </row>
     <row r="170" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -7842,7 +7542,7 @@
     </row>
     <row r="171" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -7883,7 +7583,7 @@
     </row>
     <row r="172" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -7924,7 +7624,7 @@
     </row>
     <row r="173" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -7965,7 +7665,7 @@
     </row>
     <row r="174" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -8006,7 +7706,7 @@
     </row>
     <row r="175" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -8047,7 +7747,7 @@
     </row>
     <row r="176" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -8088,7 +7788,7 @@
     </row>
     <row r="177" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -8129,7 +7829,7 @@
     </row>
     <row r="178" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -8170,7 +7870,7 @@
     </row>
     <row r="179" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -8211,7 +7911,7 @@
     </row>
     <row r="180" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -8252,7 +7952,7 @@
     </row>
     <row r="181" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -8293,7 +7993,7 @@
     </row>
     <row r="182" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -8334,7 +8034,7 @@
     </row>
     <row r="183" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -8375,7 +8075,7 @@
     </row>
     <row r="184" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -8416,7 +8116,7 @@
     </row>
     <row r="185" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -8457,7 +8157,7 @@
     </row>
     <row r="186" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -8584,7 +8284,7 @@
         <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>40</v>
@@ -8623,148 +8323,57 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="9">
-        <v>424</v>
-      </c>
-      <c r="D2" s="9">
+        <v>63</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="28">
+        <v>426</v>
+      </c>
+      <c r="D2" s="28">
         <v>151</v>
       </c>
-      <c r="E2" s="9">
-        <v>931</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="E2" s="28">
+        <v>95</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="28">
         <v>11</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="22">
         <v>0</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>83</v>
+      <c r="M2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="F7" s="34"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8782,9 +8391,7 @@
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -8802,11 +8409,11 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="34"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -8819,7 +8426,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8836,28 +8443,9 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-    </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8876,7 +8464,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8893,28 +8481,9 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-    </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -8933,7 +8502,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -8952,7 +8521,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -8971,7 +8540,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -8990,7 +8559,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -9009,7 +8578,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -9028,7 +8597,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -9047,7 +8616,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -9066,7 +8635,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -9085,7 +8654,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -9104,7 +8673,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -9123,7 +8692,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -9142,7 +8711,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -9161,7 +8730,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -9180,7 +8749,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -9199,7 +8768,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -9218,7 +8787,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -9237,7 +8806,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -9256,7 +8825,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -9275,7 +8844,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -9294,7 +8863,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -9313,7 +8882,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -9332,7 +8901,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -9351,7 +8920,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -9370,7 +8939,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -9389,7 +8958,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -9408,7 +8977,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -9427,7 +8996,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -9446,7 +9015,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -9465,7 +9034,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -9484,7 +9053,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -9503,7 +9072,7 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -9522,7 +9091,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -9541,7 +9110,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -9560,7 +9129,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -9579,7 +9148,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -9598,7 +9167,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -9617,7 +9186,7 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -9636,7 +9205,7 @@
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -9655,7 +9224,7 @@
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -9674,7 +9243,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -9693,7 +9262,7 @@
     </row>
     <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -9712,7 +9281,7 @@
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -9731,7 +9300,7 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -9750,7 +9319,7 @@
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -9769,7 +9338,7 @@
     </row>
     <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -9788,7 +9357,7 @@
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -9807,7 +9376,7 @@
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -9826,7 +9395,7 @@
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -9845,7 +9414,7 @@
     </row>
     <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -9864,7 +9433,7 @@
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -9883,7 +9452,7 @@
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -9902,7 +9471,7 @@
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -9921,7 +9490,7 @@
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -9940,7 +9509,7 @@
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -9959,7 +9528,7 @@
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -9978,7 +9547,7 @@
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -9997,7 +9566,7 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -10016,7 +9585,7 @@
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -10035,7 +9604,7 @@
     </row>
     <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -10054,7 +9623,7 @@
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -10073,7 +9642,7 @@
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -10092,7 +9661,7 @@
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -10111,7 +9680,7 @@
     </row>
     <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -10130,7 +9699,7 @@
     </row>
     <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -10149,7 +9718,7 @@
     </row>
     <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -10168,7 +9737,7 @@
     </row>
     <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -10187,7 +9756,7 @@
     </row>
     <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -10206,7 +9775,7 @@
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -10225,7 +9794,7 @@
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -10244,7 +9813,7 @@
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -10263,7 +9832,7 @@
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -10282,7 +9851,7 @@
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -10301,7 +9870,7 @@
     </row>
     <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -10320,7 +9889,7 @@
     </row>
     <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -10339,7 +9908,7 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -10358,7 +9927,7 @@
     </row>
     <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -10377,7 +9946,7 @@
     </row>
     <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -10396,7 +9965,7 @@
     </row>
     <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -10415,7 +9984,7 @@
     </row>
     <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -10434,7 +10003,7 @@
     </row>
     <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -10453,7 +10022,7 @@
     </row>
     <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -10472,7 +10041,7 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -10491,7 +10060,7 @@
     </row>
     <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -10510,7 +10079,7 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -10529,7 +10098,7 @@
     </row>
     <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -10548,7 +10117,7 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -10567,7 +10136,7 @@
     </row>
     <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -10586,7 +10155,7 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -10605,7 +10174,7 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -10624,7 +10193,7 @@
     </row>
     <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -10643,7 +10212,7 @@
     </row>
     <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -10662,7 +10231,7 @@
     </row>
     <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -10681,7 +10250,7 @@
     </row>
     <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -10700,7 +10269,7 @@
     </row>
     <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -10719,7 +10288,7 @@
     </row>
     <row r="113" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -10738,7 +10307,7 @@
     </row>
     <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -10757,7 +10326,7 @@
     </row>
     <row r="115" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -10776,7 +10345,7 @@
     </row>
     <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -10795,7 +10364,7 @@
     </row>
     <row r="117" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -10814,7 +10383,7 @@
     </row>
     <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -10833,7 +10402,7 @@
     </row>
     <row r="119" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -10852,7 +10421,7 @@
     </row>
     <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -10871,7 +10440,7 @@
     </row>
     <row r="121" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -10890,7 +10459,7 @@
     </row>
     <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -10909,7 +10478,7 @@
     </row>
     <row r="123" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -10928,7 +10497,7 @@
     </row>
     <row r="124" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -10947,7 +10516,7 @@
     </row>
     <row r="125" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -10966,7 +10535,7 @@
     </row>
     <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -10985,7 +10554,7 @@
     </row>
     <row r="127" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -11004,7 +10573,7 @@
     </row>
     <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -11023,7 +10592,7 @@
     </row>
     <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -11042,7 +10611,7 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -11061,7 +10630,7 @@
     </row>
     <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -11080,7 +10649,7 @@
     </row>
     <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -11099,7 +10668,7 @@
     </row>
     <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -11118,7 +10687,7 @@
     </row>
     <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -11137,7 +10706,7 @@
     </row>
     <row r="135" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -11156,7 +10725,7 @@
     </row>
     <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -11175,7 +10744,7 @@
     </row>
     <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -11194,7 +10763,7 @@
     </row>
     <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -11213,7 +10782,7 @@
     </row>
     <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -11232,7 +10801,7 @@
     </row>
     <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -11251,7 +10820,7 @@
     </row>
     <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -11270,7 +10839,7 @@
     </row>
     <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -11289,7 +10858,7 @@
     </row>
     <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -11308,7 +10877,7 @@
     </row>
     <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -11327,7 +10896,7 @@
     </row>
     <row r="145" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -11346,7 +10915,7 @@
     </row>
     <row r="146" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -11365,7 +10934,7 @@
     </row>
     <row r="147" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -11384,7 +10953,7 @@
     </row>
     <row r="148" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -11403,7 +10972,7 @@
     </row>
     <row r="149" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -11422,7 +10991,7 @@
     </row>
     <row r="150" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -11441,7 +11010,7 @@
     </row>
     <row r="151" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -11460,7 +11029,7 @@
     </row>
     <row r="152" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -11479,7 +11048,7 @@
     </row>
     <row r="153" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -11498,7 +11067,7 @@
     </row>
     <row r="154" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -11517,7 +11086,7 @@
     </row>
     <row r="155" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -11536,7 +11105,7 @@
     </row>
     <row r="156" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -11555,7 +11124,7 @@
     </row>
     <row r="157" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -11574,7 +11143,7 @@
     </row>
     <row r="158" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -11593,7 +11162,7 @@
     </row>
     <row r="159" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -11612,7 +11181,7 @@
     </row>
     <row r="160" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -11631,7 +11200,7 @@
     </row>
     <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -11650,7 +11219,7 @@
     </row>
     <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -11669,7 +11238,7 @@
     </row>
     <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -11688,7 +11257,7 @@
     </row>
     <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -11707,7 +11276,7 @@
     </row>
     <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -11726,7 +11295,7 @@
     </row>
     <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -11745,7 +11314,7 @@
     </row>
     <row r="167" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -11764,7 +11333,7 @@
     </row>
     <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -11783,7 +11352,7 @@
     </row>
     <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -11802,7 +11371,7 @@
     </row>
     <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -11821,7 +11390,7 @@
     </row>
     <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -11840,7 +11409,7 @@
     </row>
     <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -11859,7 +11428,7 @@
     </row>
     <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -11878,7 +11447,7 @@
     </row>
     <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -11897,7 +11466,7 @@
     </row>
     <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -11916,7 +11485,7 @@
     </row>
     <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -11935,7 +11504,7 @@
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -11954,7 +11523,7 @@
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -11973,7 +11542,7 @@
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -11992,7 +11561,7 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -12011,7 +11580,7 @@
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -12030,7 +11599,7 @@
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -12049,7 +11618,7 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -12068,7 +11637,7 @@
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -12087,7 +11656,7 @@
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -12106,7 +11675,7 @@
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -12126,10 +11695,10 @@
     <row r="190" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="191" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C191" s="14">
         <v>424</v>
@@ -12142,7 +11711,7 @@
       </c>
       <c r="F191" s="14"/>
       <c r="G191" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H191" s="14">
         <v>11</v>
@@ -12151,19 +11720,19 @@
         <v>34.24</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K191" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L191" s="14">
         <v>5</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N191" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O191" s="8"/>
       <c r="P191" s="8"/>
@@ -12191,10 +11760,10 @@
   </sheetPr>
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12263,13 +11832,13 @@
         <v>44</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
@@ -12278,68 +11847,54 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="9">
-        <v>181</v>
+      <c r="D2" s="9" t="n">
+        <v>89</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="9">
+        <v>69</v>
+      </c>
+      <c r="F2" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="9">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="9">
-        <v>199999</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="J2" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>999999999</v>
+      </c>
+      <c r="L2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="33" t="n">
         <v>9999</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" t="n">
         <v>11</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="9">
+      <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -12351,151 +11906,11 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="19"/>
-      <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="V11" s="7"/>
-    </row>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -12504,7 +11919,6 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -12520,7 +11934,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -12545,7 +11959,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -12568,35 +11982,9 @@
       <c r="T14" s="9"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="V15" s="7"/>
-    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -12620,7 +12008,7 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -12645,7 +12033,7 @@
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -12670,7 +12058,7 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -12695,7 +12083,7 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -12720,7 +12108,7 @@
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -12745,7 +12133,7 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -12770,7 +12158,7 @@
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -12795,7 +12183,7 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -12818,34 +12206,10 @@
       <c r="T24" s="9"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="V25" s="7"/>
-    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -12870,7 +12234,7 @@
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -12895,7 +12259,7 @@
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -12920,7 +12284,7 @@
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -12945,7 +12309,7 @@
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -12970,7 +12334,7 @@
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -12995,7 +12359,7 @@
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -13020,7 +12384,7 @@
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -13045,7 +12409,7 @@
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -13070,7 +12434,7 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -13095,7 +12459,7 @@
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -13120,7 +12484,7 @@
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -13145,7 +12509,7 @@
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -13170,7 +12534,7 @@
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -13195,7 +12559,7 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -13220,7 +12584,7 @@
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -13245,7 +12609,7 @@
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -13270,7 +12634,7 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -13295,7 +12659,7 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -13320,7 +12684,7 @@
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -13345,7 +12709,7 @@
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -13370,7 +12734,7 @@
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -13395,7 +12759,7 @@
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -13420,7 +12784,7 @@
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -13445,7 +12809,7 @@
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -13470,7 +12834,7 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -13495,7 +12859,7 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -13520,7 +12884,7 @@
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -13545,7 +12909,7 @@
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -13570,7 +12934,7 @@
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -13595,7 +12959,7 @@
     </row>
     <row r="56" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -13620,7 +12984,7 @@
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -13645,7 +13009,7 @@
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -13670,7 +13034,7 @@
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -13695,7 +13059,7 @@
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -13720,7 +13084,7 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -13745,7 +13109,7 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -13770,7 +13134,7 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -13795,7 +13159,7 @@
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -13820,7 +13184,7 @@
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -13845,7 +13209,7 @@
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -13870,7 +13234,7 @@
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -13895,7 +13259,7 @@
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -13920,7 +13284,7 @@
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -13945,7 +13309,7 @@
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -13970,7 +13334,7 @@
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -13995,7 +13359,7 @@
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -14020,7 +13384,7 @@
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -14045,7 +13409,7 @@
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -14070,7 +13434,7 @@
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -14095,7 +13459,7 @@
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -14120,7 +13484,7 @@
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -14145,7 +13509,7 @@
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -14170,7 +13534,7 @@
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -14195,7 +13559,7 @@
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -14220,7 +13584,7 @@
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -14245,7 +13609,7 @@
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -14270,7 +13634,7 @@
     </row>
     <row r="83" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -14295,7 +13659,7 @@
     </row>
     <row r="84" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -14320,7 +13684,7 @@
     </row>
     <row r="85" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -14345,7 +13709,7 @@
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -14370,7 +13734,7 @@
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -14395,7 +13759,7 @@
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -14420,7 +13784,7 @@
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -14445,7 +13809,7 @@
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -14470,7 +13834,7 @@
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -14495,7 +13859,7 @@
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -14520,7 +13884,7 @@
     </row>
     <row r="93" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -14545,7 +13909,7 @@
     </row>
     <row r="94" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -14570,7 +13934,7 @@
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -14595,7 +13959,7 @@
     </row>
     <row r="96" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -14620,7 +13984,7 @@
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -14645,7 +14009,7 @@
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -14670,7 +14034,7 @@
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -14695,7 +14059,7 @@
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -14720,7 +14084,7 @@
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -14745,7 +14109,7 @@
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -14770,7 +14134,7 @@
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -14795,7 +14159,7 @@
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -14820,7 +14184,7 @@
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -14845,7 +14209,7 @@
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -14870,7 +14234,7 @@
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -14895,7 +14259,7 @@
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -14920,7 +14284,7 @@
     </row>
     <row r="109" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -14945,7 +14309,7 @@
     </row>
     <row r="110" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -14970,7 +14334,7 @@
     </row>
     <row r="111" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -14995,7 +14359,7 @@
     </row>
     <row r="112" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -15020,7 +14384,7 @@
     </row>
     <row r="113" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -15045,7 +14409,7 @@
     </row>
     <row r="114" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -15070,7 +14434,7 @@
     </row>
     <row r="115" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -15095,7 +14459,7 @@
     </row>
     <row r="116" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -15120,7 +14484,7 @@
     </row>
     <row r="117" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -15145,7 +14509,7 @@
     </row>
     <row r="118" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -15170,7 +14534,7 @@
     </row>
     <row r="119" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -15195,7 +14559,7 @@
     </row>
     <row r="120" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -15220,7 +14584,7 @@
     </row>
     <row r="121" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -15245,7 +14609,7 @@
     </row>
     <row r="122" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -15270,7 +14634,7 @@
     </row>
     <row r="123" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -15295,7 +14659,7 @@
     </row>
     <row r="124" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -15320,7 +14684,7 @@
     </row>
     <row r="125" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -15345,7 +14709,7 @@
     </row>
     <row r="126" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -15370,7 +14734,7 @@
     </row>
     <row r="127" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -15395,7 +14759,7 @@
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -15420,7 +14784,7 @@
     </row>
     <row r="129" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -15445,7 +14809,7 @@
     </row>
     <row r="130" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -15470,7 +14834,7 @@
     </row>
     <row r="131" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -15495,7 +14859,7 @@
     </row>
     <row r="132" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -15520,7 +14884,7 @@
     </row>
     <row r="133" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -15545,7 +14909,7 @@
     </row>
     <row r="134" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -15570,7 +14934,7 @@
     </row>
     <row r="135" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -15595,7 +14959,7 @@
     </row>
     <row r="136" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -15620,7 +14984,7 @@
     </row>
     <row r="137" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -15645,7 +15009,7 @@
     </row>
     <row r="138" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -15670,7 +15034,7 @@
     </row>
     <row r="139" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -15695,7 +15059,7 @@
     </row>
     <row r="140" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -15720,7 +15084,7 @@
     </row>
     <row r="141" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -15745,7 +15109,7 @@
     </row>
     <row r="142" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -15770,7 +15134,7 @@
     </row>
     <row r="143" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -15795,7 +15159,7 @@
     </row>
     <row r="144" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -15820,7 +15184,7 @@
     </row>
     <row r="145" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -15845,7 +15209,7 @@
     </row>
     <row r="146" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -15870,7 +15234,7 @@
     </row>
     <row r="147" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -15918,7 +15282,7 @@
     </row>
     <row r="149" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -15943,7 +15307,7 @@
     </row>
     <row r="150" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -15968,7 +15332,7 @@
     </row>
     <row r="151" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -15993,7 +15357,7 @@
     </row>
     <row r="152" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -16018,7 +15382,7 @@
     </row>
     <row r="153" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -16043,7 +15407,7 @@
     </row>
     <row r="154" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -16068,7 +15432,7 @@
     </row>
     <row r="155" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -16093,7 +15457,7 @@
     </row>
     <row r="156" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -16118,7 +15482,7 @@
     </row>
     <row r="157" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -16143,7 +15507,7 @@
     </row>
     <row r="158" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -16168,7 +15532,7 @@
     </row>
     <row r="159" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -16193,7 +15557,7 @@
     </row>
     <row r="160" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -16218,7 +15582,7 @@
     </row>
     <row r="161" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -16243,7 +15607,7 @@
     </row>
     <row r="162" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -16268,7 +15632,7 @@
     </row>
     <row r="163" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -16293,7 +15657,7 @@
     </row>
     <row r="164" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -16318,7 +15682,7 @@
     </row>
     <row r="165" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -16343,7 +15707,7 @@
     </row>
     <row r="166" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -16368,7 +15732,7 @@
     </row>
     <row r="167" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -16393,7 +15757,7 @@
     </row>
     <row r="168" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -16418,7 +15782,7 @@
     </row>
     <row r="169" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -16443,7 +15807,7 @@
     </row>
     <row r="170" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
@@ -16468,7 +15832,7 @@
     </row>
     <row r="171" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -16493,7 +15857,7 @@
     </row>
     <row r="172" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -16518,7 +15882,7 @@
     </row>
     <row r="173" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -16543,7 +15907,7 @@
     </row>
     <row r="174" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -16568,7 +15932,7 @@
     </row>
     <row r="175" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -16593,7 +15957,7 @@
     </row>
     <row r="176" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -16618,7 +15982,7 @@
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -16643,7 +16007,7 @@
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -16668,7 +16032,7 @@
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -16693,7 +16057,7 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -16718,7 +16082,7 @@
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -16743,7 +16107,7 @@
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -16768,7 +16132,7 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -16793,7 +16157,7 @@
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
@@ -16818,7 +16182,7 @@
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -16843,7 +16207,7 @@
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -16868,7 +16232,7 @@
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -16894,7 +16258,7 @@
     <row r="191" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="192" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7" t="s">
@@ -16904,7 +16268,7 @@
         <v>181</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F192" s="15">
         <v>0</v>
@@ -16962,7 +16326,7 @@
   <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16970,94 +16334,62 @@
     <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>511</v>
-      </c>
-      <c r="B2">
-        <v>511</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>517</v>
+      </c>
+      <c r="B2" s="19">
+        <v>517</v>
+      </c>
+      <c r="C2" s="19">
+        <v>52</v>
       </c>
       <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
     </row>
